--- a/wk/DB設計/001_テーブル定義/コード一覧.xlsx
+++ b/wk/DB設計/001_テーブル定義/コード一覧.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="コードリスト" sheetId="1" r:id="rId1"/>
+    <sheet name="コード一覧" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -341,18 +341,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>001,002など・・・</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>01,02など・・・</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0：未削除（初期値） ／ 1：削除</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>承認ステータス</t>
     <rPh sb="0" eb="2">
       <t>ショウニン</t>
@@ -361,80 +349,6 @@
   </si>
   <si>
     <t>ApprovalStatus</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1：管理部 ／ 2：一次承認者→管理部　／ 3：一次承認者→二次承認者→管理部</t>
-    <rPh sb="2" eb="5">
-      <t>カンリブ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>カンリブ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニジ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0：未申請 ／ 1：一次承認待ち ／ 2：二次承認待ち ／ 3：三次承認待ち ／ 8：差し戻し ／ 9：承認済み</t>
-    <rPh sb="2" eb="5">
-      <t>ミシンセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>サンジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ス</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -492,33 +406,295 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1：一次承認者 ／ 2：二次承認者　／ 3：三次承認者 ／ 9：管理部</t>
-    <rPh sb="2" eb="6">
-      <t>イチジショウニン</t>
+    <t>休暇区分</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HolidayKbn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>休暇区分を表す</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>交通機関種類</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入区分</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TransKbn</t>
+  </si>
+  <si>
+    <t>BuyKbn</t>
+  </si>
+  <si>
+    <t>交通機関の種類を表す</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>通勤費の購入区分を表す</t>
+    <rPh sb="0" eb="2">
+      <t>ツウキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>経費区分</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ExpenseKbn</t>
+  </si>
+  <si>
+    <t>経費区分を表す</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>精算方法</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PayoffKbn</t>
+  </si>
+  <si>
+    <t>承認区分</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ApprovalKbn</t>
+  </si>
+  <si>
+    <t>書籍購入の精算方法を表す</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>振替休日取得区分</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TransHolidayKbn</t>
+  </si>
+  <si>
+    <t>振替休日取得有無を表す</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>書籍購入についての承認が事前か事後かを表す</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジゴ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Gender</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員の性別を表す</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイベツ</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>シャ</t>
+      <t>アラワ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニジ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>役職</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウニン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>社員に付与される役職を表す</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
     </rPh>
-    <rPh sb="16" eb="17">
-      <t>シャ</t>
+    <rPh sb="3" eb="5">
+      <t>フヨ</t>
     </rPh>
-    <rPh sb="22" eb="24">
-      <t>ミヨシ</t>
+    <rPh sb="8" eb="10">
+      <t>ヤクショク</t>
     </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショウニン</t>
+    <rPh sb="11" eb="12">
+      <t>アラワ</t>
     </rPh>
-    <rPh sb="26" eb="27">
-      <t>シャ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
     </rPh>
-    <rPh sb="32" eb="35">
-      <t>カンリブ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WeekDay</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>曜日を表す</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アラワ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -598,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -612,6 +788,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -894,9 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -952,9 +1127,6 @@
         <v>44</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="2" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="5" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A5" s="5">
@@ -977,9 +1149,6 @@
         <v>43</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="2" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="6" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A6" s="5">
@@ -1002,9 +1171,6 @@
         <v>47</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="2" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="7" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A7" s="5">
@@ -1027,9 +1193,6 @@
         <v>50</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="2" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A8" s="5">
@@ -1037,10 +1200,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>35</v>
@@ -1049,12 +1212,9 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="2" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A9" s="5">
@@ -1062,10 +1222,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>35</v>
@@ -1074,23 +1234,30 @@
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="2" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="10" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -1098,11 +1265,21 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -1110,11 +1287,21 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -1122,11 +1309,21 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -1134,23 +1331,44 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="G14" s="4"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -1158,50 +1376,91 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="17" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="18" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="19" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1213,7 +1472,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="21" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1225,7 +1484,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="22" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1237,7 +1496,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="23" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1249,7 +1508,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="24" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1261,7 +1520,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="25" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1273,7 +1532,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="26" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1285,7 +1544,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="27" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
@@ -1294,7 +1553,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="28" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -1303,7 +1562,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="29" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -1312,7 +1571,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="30" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
@@ -1321,7 +1580,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="31" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -1330,7 +1589,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="17.850000000000001" customHeight="1">
+    <row r="32" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -12945,7 +13204,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
